--- a/Git-Command.xlsx
+++ b/Git-Command.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
   <si>
     <t>选项</t>
   </si>
@@ -510,6 +510,1011 @@
       </rPr>
       <t>输出的选项</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git tag -a v1.4 -m 'my version 1.4'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出已有的标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git tag -a &lt;version-name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个附注标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git tag &lt;version-name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个轻量标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git tag v1.4-lw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git show [version-name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git tag -a &lt;version-name&gt; &lt;SHA-1&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期打标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git tag -a v1.2 9fceb02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch &lt;branch-name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout &lt;branch-name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout -b &lt;branch-name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建分支并切换到此分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -d hotfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -d &lt;branch-name&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eg:把hotfix分支中修改的内容合并到master分支
+git checkout master
+git merge hotfix 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git mergetool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动一个合适的可视化合并工具，并带领你一步一步解决冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout -b iss53
+  ==
+git branch iss53
+git checkout iss53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 分支的创建与合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 分支管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看每一个分支的最后一次提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch --merged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看哪些分支已经合并到当前分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch --no-merged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有包含未合并工作的分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git ls-remote (remote)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显式地获得远程引用的完整列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push (remote) (branch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送到有写入权限的远程仓库上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有分支（本地分支和远程分支），远程分支会用红色标示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eg:
+$ git ls-remote
+From git@github.com:weiguangqiang/test.git
+eda4c689130166a615122c7a5048fa0ff41e364c        HEAD
+7d28397582794050ab9d79c6f124af9826410a14        refs/heads/branch-0
+3aa4d5f39c867a5622a82925ae31f383c59e13a6        refs/heads/gui-test
+eda4c689130166a615122c7a5048fa0ff41e364c        refs/heads/master
+33e9d505ef36425c1430365098acc7aa449a36ab        refs/heads/push-branch
+35a20f75b3e823fd1adf37dc381c57a6929f3cd6        refs/heads/revert-1-pull-branch-test
+75ad64d25a564ac96e98dc849aeb843c313889b6        refs/pull/1/head
+35a20f75b3e823fd1adf37dc381c57a6929f3cd6        refs/pull/2/head
+33e9d505ef36425c1430365098acc7aa449a36ab        refs/pull/3/head
+33e9d505ef36425c1430365098acc7aa449a36ab        refs/remotes/origin/push-branch
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout -b [branch] [remotename]/[branch]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用此命令可以使本地分支跟踪服务器上的某一个远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout --track origin/serverfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout --track [remotename]/[branch]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与git checkout -b [branch] [remotename]/[branch]功能一样，不过
+本地分支名称模式和远程分支的一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -u origin/serverfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -vv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看设置的所有跟踪分支。将所有的本地分支列出来并且包含更多的信息，
+如每一个分支正在跟踪哪个远程分支与本地分支是否是领先、落后或是都有。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置已有的本地分支跟踪一个刚刚拉取下来的远程分支
+，或者想要修改正在跟踪的上游分支，通过此命令显示地设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git branch -u [remotename]/[branch]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或者
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git branch --set-upstream-to [remotename]/[branch]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详细描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">***
+$ git remote show origin
+* remote origin
+  Fetch URL: git@github.com:weiguangqiang/test.git
+  Push  URL: git@github.com:weiguangqiang/test.git
+  HEAD branch: master
+  Remote branches:
+    branch-0                  tracked
+    gui-test                  tracked
+    master                    tracked
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>push-branch               tracked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    revert-1-pull-branch-test tracked
+  Local branches configured for '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>git pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">':
+    branch-0 merges with remote branch-0
+    master   merges with remote master
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>push-0   merges with remote push-branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  Local refs configured for '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>git push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>':
+    branch-0 pushes to branch-0 (up to date)
+    master   pushes to master   (up to date)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin --delete serverfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push (remote) --delete (branch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>eg:
+git push origin serverfix -- “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送本地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> serverfix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支来更新远程仓库上的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> serverfix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+git push origin serverfix:serverfix -- “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送本地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> serverfix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支，将其作为远程仓库的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> serverfix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">”
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+git push origin serverfix:awesomebranch -- “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将本地的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> serverfix </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支推送到远程仓库上的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> awesomebranch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本上这个命令做的只是从服务器上移除这个指针。 
+Git 服务器通常会保留数据一段时间直到垃圾回收运行，
+所以如果不小心删除掉了，通常是很容易恢复的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">***
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git branch -u [remotename]/[branch]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令与远程分支关联，但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有，当在本地分支直接使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不知道提交到服务器的那个分支上</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***提交方法***
+如果不知道远程分支结构的话，使用 git ls-remote 查看
+eg:
+$ git ls-remote
+From git@github.com:weiguangqiang/test.git
+eda4c689130166a615122c7a5048fa0ff41e364c        HEAD
+7d28397582794050ab9d79c6f124af9826410a14        refs/heads/branch-0
+3aa4d5f39c867a5622a82925ae31f383c59e13a6        refs/heads/gui-test
+eda4c689130166a615122c7a5048fa0ff41e364c        refs/heads/master
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>33e9d505ef36425c1430365098acc7aa449a36ab        refs/heads/push-branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+35a20f75b3e823fd1adf37dc381c57a6929f3cd6        refs/heads/revert-1-pull-branch-test
+75ad64d25a564ac96e98dc849aeb843c313889b6        refs/pull/1/head
+35a20f75b3e823fd1adf37dc381c57a6929f3cd6        refs/pull/2/head
+33e9d505ef36425c1430365098acc7aa449a36ab        refs/pull/3/head
+33e9d505ef36425c1430365098acc7aa449a36ab        refs/remotes/origin/push-branch
+然后使用 git push [remote-name] [branch-name]
+eg:
+$ git push origin HEAD:refs/heads/push-branch</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看分支</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从服务器上抓取本地没有的数据时，它并不会修改工作目录中的内容。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它只会获取数据然后让你自己合并。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在大多数情况下它的含义是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> git fetch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧接着一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> git merge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉取分支</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 远程分支 - 推送分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 远程分支 - 跟踪分支 - 从一个远程跟踪分支检出一个本地分支会自动创建一个叫做 “跟踪分支”（有时候也叫做 “上游分支”）。 跟踪分支是与远程分支有直接关系的本地分支。 
+如果在一个跟踪分支上输入 git pull，Git 能自动地识别去哪个服务器上抓取、合并到哪个分支。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.远程分支 - 删除远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.Git分支 - 变基 -- http://git-scm.com/book/zh/v2/Git-%E5%88%86%E6%94%AF-%E5%8F%98%E5%9F%BA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg:
+$ git checkout experiment
+$ git rebase master
+First, rewinding head to replay your work on top of it...
+Applying: added staged command
+然后，回到 master 分支，进行一次快进合并
+$ git checkout master
+$ git merge experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在 Git 中整合来自不同分支的修改主要有两种方法：merge 以及 rebase。
+2.变基的风险
+用它得遵守一条准则：不要对在你的仓库外有副本的分支执行变基。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase --onto ***1 ***2 ***3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase --onto master server client
+“取出 client 分支，找出处于 client 分支和 server 分支的共同祖先之后的修改，
+然后把它们在 master 分支上重演一遍”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase [basebranch] [topicbranch]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接将特性分支（即本例中的 server）变基到目标分支（即 master）上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase master server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +1522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +1606,56 @@
       <color rgb="FF4E443C"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF4E443C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -695,7 +1750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,17 +1760,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -723,14 +1769,38 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,472 +2096,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="40.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="77.625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" ht="24">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:3" ht="36">
-      <c r="A46" s="8" t="s">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" ht="24">
+      <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="5" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="51" spans="1:3" ht="168">
+      <c r="A51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" ht="48">
+      <c r="A65" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="48">
+      <c r="A67" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" ht="23.25">
+      <c r="A77" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="11"/>
+    </row>
+    <row r="80" spans="1:4" ht="72">
+      <c r="A80" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="5"/>
+    </row>
+    <row r="81" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A81" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" ht="24">
+      <c r="A82" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" ht="24">
+      <c r="A83" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" ht="47.25">
+      <c r="A84" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="24">
+      <c r="A85" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:4" ht="228">
+      <c r="A86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
+    </row>
+    <row r="88" spans="1:4" ht="36">
+      <c r="A88" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A90" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" ht="96">
+      <c r="A91" s="5"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="36">
+      <c r="A92" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="19">
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git-Command.xlsx
+++ b/Git-Command.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="175">
   <si>
     <t>选项</t>
   </si>
@@ -1515,6 +1515,14 @@
   </si>
   <si>
     <t>git rebase master server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有的远程分支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1750,7 +1758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1769,6 +1777,30 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1778,29 +1810,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2096,10 +2107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2111,18 +2122,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -2269,18 +2280,18 @@
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
@@ -2375,11 +2386,11 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
@@ -2467,18 +2478,18 @@
       <c r="C40" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
@@ -2565,18 +2576,18 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
@@ -2628,18 +2639,18 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="8"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
@@ -2659,7 +2670,7 @@
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:4" ht="48">
+    <row r="65" spans="1:3" ht="48">
       <c r="A65" s="5" t="s">
         <v>113</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
         <v>116</v>
       </c>
@@ -2681,7 +2692,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="48">
+    <row r="67" spans="1:3" ht="48">
       <c r="A67" s="5" t="s">
         <v>118</v>
       </c>
@@ -2692,7 +2703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
         <v>121</v>
       </c>
@@ -2701,14 +2712,14 @@
       </c>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
         <v>126</v>
       </c>
@@ -2717,7 +2728,7 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
         <v>136</v>
       </c>
@@ -2726,7 +2737,7 @@
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
         <v>128</v>
       </c>
@@ -2735,7 +2746,7 @@
       </c>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
         <v>130</v>
       </c>
@@ -2744,207 +2755,216 @@
       </c>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="12" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-    </row>
-    <row r="77" spans="1:4" ht="23.25">
-      <c r="A77" s="5" t="s">
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+    </row>
+    <row r="78" spans="1:3" ht="23.25">
+      <c r="A78" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="12" t="s">
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-    </row>
-    <row r="80" spans="1:4" ht="72">
-      <c r="A80" s="5" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" ht="72">
+      <c r="A81" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A81" s="13" t="s">
+      <c r="D81" s="5"/>
+    </row>
+    <row r="82" spans="1:4" ht="26.25" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="1:4" ht="24">
-      <c r="A82" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="5"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" ht="24">
       <c r="A83" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" ht="24">
+      <c r="A84" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="1:4" ht="47.25">
-      <c r="A84" s="5" t="s">
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" ht="47.25">
+      <c r="A85" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="24">
-      <c r="A85" s="5" t="s">
+    <row r="86" spans="1:4" ht="24">
+      <c r="A86" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:4" ht="228">
-      <c r="A86" s="5" t="s">
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="1:4" ht="228">
+      <c r="A87" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="12" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11"/>
-    </row>
-    <row r="88" spans="1:4" ht="36">
-      <c r="A88" s="5" t="s">
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" ht="36">
+      <c r="A89" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="12" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-    </row>
-    <row r="90" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A90" s="14" t="s">
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A91" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="16"/>
-    </row>
-    <row r="91" spans="1:4" ht="96">
-      <c r="A91" s="5"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="36">
-      <c r="A92" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="92" spans="1:4" ht="96">
+      <c r="A92" s="5"/>
       <c r="B92" s="2"/>
       <c r="C92" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="36">
+      <c r="A93" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git-Command.xlsx
+++ b/Git-Command.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="199">
   <si>
     <t>选项</t>
   </si>
@@ -1257,9 +1257,296 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">***提交方法***
-如果不知道远程分支结构的话，使用 git ls-remote 查看
-eg:
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看分支</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从服务器上抓取本地没有的数据时，它并不会修改工作目录中的内容。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它只会获取数据然后让你自己合并。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在大多数情况下它的含义是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> git fetch </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紧接着一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> git merge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF4E443C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程分支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉取分支</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 远程分支 - 推送分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 远程分支 - 跟踪分支 - 从一个远程跟踪分支检出一个本地分支会自动创建一个叫做 “跟踪分支”（有时候也叫做 “上游分支”）。 跟踪分支是与远程分支有直接关系的本地分支。 
+如果在一个跟踪分支上输入 git pull，Git 能自动地识别去哪个服务器上抓取、合并到哪个分支。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.远程分支 - 删除远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.Git分支 - 变基 -- http://git-scm.com/book/zh/v2/Git-%E5%88%86%E6%94%AF-%E5%8F%98%E5%9F%BA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg:
+$ git checkout experiment
+$ git rebase master
+First, rewinding head to replay your work on top of it...
+Applying: added staged command
+然后，回到 master 分支，进行一次快进合并
+$ git checkout master
+$ git merge experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在 Git 中整合来自不同分支的修改主要有两种方法：merge 以及 rebase。
+2.变基的风险
+用它得遵守一条准则：不要对在你的仓库外有副本的分支执行变基。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase --onto ***1 ***2 ***3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase --onto master server client
+“取出 client 分支，找出处于 client 分支和 server 分支的共同祖先之后的修改，
+然后把它们在 master 分支上重演一遍”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase [basebranch] [topicbranch]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接将特性分支（即本例中的 server）变基到目标分支（即 master）上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rebase master server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git branch -r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有的远程分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>http://www.ruanyifeng.com/blog/2014/06/git_remote.html 
+***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">***
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果不知道远程分支结构的话，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> git ls-remote </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">查看
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">eg:
 $ git ls-remote
 From git@github.com:weiguangqiang/test.git
 eda4c689130166a615122c7a5048fa0ff41e364c        HEAD
@@ -1296,47 +1583,76 @@
 33e9d505ef36425c1430365098acc7aa449a36ab        refs/remotes/origin/push-branch
 然后使用 git push [remote-name] [branch-name]
 eg:
-$ git push origin HEAD:refs/heads/push-branch</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程分支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>查看分支</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch</t>
+$ git push origin HEAD:refs/heads/push-branch
+或者使用
+git push -u [remote-name] [local-branch]:[remote-branch] 提交并创建关联关系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用于使用 git diff 或 Unix diff 命令（不推荐使用这种方式）创建的补丁。它与运行 patch -p1 命令来应用补丁几乎是等效的，但是这种方式更加严格，推荐使用git apply
+git apply 命令采用了一种“全部应用，否则就全部撤销（apply all or abort all）”的模型，即补丁只有全部内容都被应用和完全不被应用两个状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查patch是否可以顺利应用。如果没有产生输出，则该补丁可以顺利应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用于由 format-patch 命令生成的补丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打补丁时，使 Git 尝试进行三方合并。
+该选项默认并没有打开，因为如果用于创建补丁的提交并不在你的版本库内的话，这样做是没有用处的。 而如果你确实有那个提交的话——比如补丁是基于某个公共提交的——那么通常 -3 选项对于应用有冲突的补丁是更加明智的选择。例如，如果之前打同样的补丁，若没有 -3 选项的话，会使得开起来像是存在一个冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成patch（补丁），使用 git am 打此类补丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git format-patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git apply &lt;patch-path&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git apply /tmp/patch-ruby-client.patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git apply --check &lt;patch-path&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git apply --check 0001-seeing-if-this-helps-the-gem.patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git am &lt;patch-path&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git am 0001-limit-log-function.patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git am -3 &lt;patch-path&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git am -3 0001-seeing-if-this-helps-the-gem.patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1348,7 +1664,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>从服务器上抓取本地没有的数据时，它并不会修改工作目录中的内容。</t>
+      <t>生成</t>
     </r>
     <r>
       <rPr>
@@ -1357,7 +1673,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>patch</t>
     </r>
     <r>
       <rPr>
@@ -1367,24 +1683,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>它只会获取数据然后让你自己合并。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF4E443C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在大多数情况下它的含义是一个</t>
+      <t>（补丁），使用</t>
     </r>
     <r>
       <rPr>
@@ -1393,7 +1692,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> git fetch </t>
+      <t xml:space="preserve"> git apply </t>
     </r>
     <r>
       <rPr>
@@ -1403,126 +1702,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>紧接着一个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF4E443C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> git merge </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF4E443C"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命令</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程分支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拉取分支</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 远程分支 - 推送分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 远程分支 - 跟踪分支 - 从一个远程跟踪分支检出一个本地分支会自动创建一个叫做 “跟踪分支”（有时候也叫做 “上游分支”）。 跟踪分支是与远程分支有直接关系的本地分支。 
-如果在一个跟踪分支上输入 git pull，Git 能自动地识别去哪个服务器上抓取、合并到哪个分支。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.远程分支 - 删除远程分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.Git分支 - 变基 -- http://git-scm.com/book/zh/v2/Git-%E5%88%86%E6%94%AF-%E5%8F%98%E5%9F%BA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eg:
-$ git checkout experiment
-$ git rebase master
-First, rewinding head to replay your work on top of it...
-Applying: added staged command
-然后，回到 master 分支，进行一次快进合并
-$ git checkout master
-$ git merge experiment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.在 Git 中整合来自不同分支的修改主要有两种方法：merge 以及 rebase。
-2.变基的风险
-用它得遵守一条准则：不要对在你的仓库外有副本的分支执行变基。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase --onto ***1 ***2 ***3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase --onto master server client
-“取出 client 分支，找出处于 client 分支和 server 分支的共同祖先之后的修改，
-然后把它们在 master 分支上重演一遍”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase [basebranch] [topicbranch]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接将特性分支（即本例中的 server）变基到目标分支（即 master）上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rebase master server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git branch -r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看所有的远程分支</t>
+      <t>打此类补丁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查空白问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add --patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂存文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push -u [remote-name] [local-branch]:[remote-branch]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把本地branch的信息推送到远程branch上，同时创建关联关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1777,6 +1982,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1809,9 +2017,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2107,33 +2312,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="43.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="52.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="77.625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
@@ -2280,18 +2485,18 @@
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
@@ -2386,11 +2591,11 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
@@ -2478,18 +2683,18 @@
       <c r="C40" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
@@ -2576,18 +2781,18 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
@@ -2639,18 +2844,18 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
@@ -2713,11 +2918,11 @@
       <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
@@ -2756,18 +2961,18 @@
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>174</v>
       </c>
       <c r="C75" s="5"/>
     </row>
@@ -2781,36 +2986,36 @@
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8"/>
+      <c r="A77" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" ht="23.25">
       <c r="A78" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
+      <c r="A80" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:4" ht="72">
       <c r="A81" s="5" t="s">
@@ -2825,11 +3030,11 @@
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
+      <c r="A82" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" ht="24">
@@ -2874,7 +3079,7 @@
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="228">
+    <row r="87" spans="1:4" ht="255">
       <c r="A87" s="5" t="s">
         <v>154</v>
       </c>
@@ -2882,15 +3087,15 @@
         <v>149</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
+      <c r="A88" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:4" ht="36">
       <c r="A89" s="5" t="s">
@@ -2904,48 +3109,158 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="8"/>
+      <c r="A90" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A91" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
+      <c r="A91" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
     </row>
     <row r="92" spans="1:4" ht="96">
       <c r="A92" s="5"/>
       <c r="B92" s="2"/>
       <c r="C92" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="36">
       <c r="A93" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>172</v>
-      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="1:3" ht="60">
+      <c r="A99" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="72">
+      <c r="A102" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="1:3" ht="24">
+      <c r="A108" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C108" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A42:C42"/>

--- a/Git-Command.xlsx
+++ b/Git-Command.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="201">
   <si>
     <t>选项</t>
   </si>
@@ -1730,12 +1730,26 @@
     <t>把本地branch的信息推送到远程branch上，同时创建关联关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>git remote set-url origin git://github.com/YourDirectory/YourProject.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/12940626/github-error-message-permission-denied-publickey 
+For some reason my origin got messed up without my realizing it:
+Check if your settings are still correct
+git remote -v
+the url needs to be something like ssh://git@github.com/YourDirectory/YourProject.git; if you don't see git@github.com, use
+git remote set-url origin git://github.com/YourDirectory/YourProject.git
+to set it right. Or you could use the github app to check and set the Primary Remote Repository url in the settings panel of your particular repository.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1985,13 +1999,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2006,24 +2032,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2070,7 +2092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2102,9 +2124,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2136,6 +2159,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2311,14 +2335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="52.25" style="3" customWidth="1"/>
@@ -2326,21 +2350,21 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2373,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2358,7 +2382,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2367,7 +2391,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2376,7 +2400,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -2385,7 +2409,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -2394,7 +2418,7 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
@@ -2403,7 +2427,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
@@ -2412,7 +2436,7 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
@@ -2421,7 +2445,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
@@ -2430,7 +2454,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -2439,7 +2463,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -2448,7 +2472,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -2457,7 +2481,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -2466,7 +2490,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -2475,7 +2499,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -2484,21 +2508,21 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="14" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2531,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
@@ -2516,7 +2540,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +2549,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2558,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
@@ -2543,7 +2567,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -2552,7 +2576,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -2561,7 +2585,7 @@
       </c>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
@@ -2570,7 +2594,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
@@ -2579,7 +2603,7 @@
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" ht="24">
+    <row r="30" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -2590,14 +2614,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
@@ -2606,7 +2630,7 @@
       </c>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -2615,7 +2639,7 @@
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>64</v>
       </c>
@@ -2626,7 +2650,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>66</v>
       </c>
@@ -2635,7 +2659,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>54</v>
       </c>
@@ -2644,7 +2668,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
@@ -2653,7 +2677,7 @@
       </c>
       <c r="C37" s="5"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
@@ -2662,7 +2686,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
@@ -2673,7 +2697,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
@@ -2682,21 +2706,21 @@
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>72</v>
       </c>
@@ -2705,7 +2729,7 @@
       </c>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>74</v>
       </c>
@@ -2714,7 +2738,7 @@
       </c>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:3" ht="24">
+    <row r="46" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>76</v>
       </c>
@@ -2725,7 +2749,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
@@ -2736,7 +2760,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>81</v>
       </c>
@@ -2747,7 +2771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>84</v>
       </c>
@@ -2758,7 +2782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>88</v>
       </c>
@@ -2769,7 +2793,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="168">
+    <row r="51" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>132</v>
       </c>
@@ -2780,21 +2804,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="14" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
         <v>96</v>
       </c>
@@ -2803,7 +2827,7 @@
       </c>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
         <v>99</v>
       </c>
@@ -2814,7 +2838,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>101</v>
       </c>
@@ -2825,14 +2849,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
         <v>105</v>
       </c>
@@ -2843,21 +2867,21 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="7" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
         <v>109</v>
       </c>
@@ -2866,7 +2890,7 @@
       </c>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
         <v>111</v>
       </c>
@@ -2875,7 +2899,7 @@
       </c>
       <c r="C64" s="5"/>
     </row>
-    <row r="65" spans="1:3" ht="48">
+    <row r="65" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
         <v>113</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
         <v>116</v>
       </c>
@@ -2897,7 +2921,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="48">
+    <row r="67" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>118</v>
       </c>
@@ -2908,7 +2932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
         <v>121</v>
       </c>
@@ -2917,14 +2941,14 @@
       </c>
       <c r="C68" s="5"/>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
         <v>126</v>
       </c>
@@ -2933,7 +2957,7 @@
       </c>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>136</v>
       </c>
@@ -2942,7 +2966,7 @@
       </c>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>128</v>
       </c>
@@ -2951,7 +2975,7 @@
       </c>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>130</v>
       </c>
@@ -2960,14 +2984,14 @@
       </c>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
         <v>172</v>
       </c>
@@ -2976,7 +3000,7 @@
       </c>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
         <v>136</v>
       </c>
@@ -2985,14 +3009,14 @@
       </c>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-    </row>
-    <row r="78" spans="1:3" ht="23.25">
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="1:3" ht="23.25" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
         <v>156</v>
       </c>
@@ -3001,7 +3025,7 @@
       </c>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
         <v>158</v>
       </c>
@@ -3010,14 +3034,14 @@
       </c>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" ht="72">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+    </row>
+    <row r="81" spans="1:4" ht="72" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>134</v>
       </c>
@@ -3029,15 +3053,15 @@
       </c>
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A82" s="13" t="s">
+    <row r="82" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="24">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
         <v>139</v>
       </c>
@@ -3047,7 +3071,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" ht="24">
+    <row r="84" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
         <v>142</v>
       </c>
@@ -3059,7 +3083,7 @@
       </c>
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" ht="47.25">
+    <row r="85" spans="1:4" ht="47.25" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
         <v>148</v>
       </c>
@@ -3070,7 +3094,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="24">
+    <row r="86" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
         <v>145</v>
       </c>
@@ -3079,7 +3103,7 @@
       </c>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="255">
+    <row r="87" spans="1:4" ht="255" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>154</v>
       </c>
@@ -3090,14 +3114,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-    </row>
-    <row r="89" spans="1:4" ht="36">
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
         <v>151</v>
       </c>
@@ -3108,28 +3132,28 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A91" s="10" t="s">
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-    </row>
-    <row r="92" spans="1:4" ht="96">
+      <c r="B91" s="15"/>
+      <c r="C91" s="16"/>
+    </row>
+    <row r="92" spans="1:4" ht="96" x14ac:dyDescent="0.15">
       <c r="A92" s="5"/>
       <c r="B92" s="2"/>
       <c r="C92" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="36">
+    <row r="93" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
         <v>167</v>
       </c>
@@ -3138,7 +3162,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
         <v>169</v>
       </c>
@@ -3149,14 +3173,14 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="15" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
         <v>191</v>
       </c>
@@ -3165,7 +3189,7 @@
       </c>
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
         <v>182</v>
       </c>
@@ -3174,7 +3198,7 @@
       </c>
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="1:3" ht="60">
+    <row r="99" spans="1:3" ht="60" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
         <v>183</v>
       </c>
@@ -3185,7 +3209,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
         <v>185</v>
       </c>
@@ -3196,7 +3220,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
         <v>187</v>
       </c>
@@ -3207,7 +3231,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="72">
+    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
         <v>189</v>
       </c>
@@ -3218,19 +3242,19 @@
         <v>190</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="15" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="17"/>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="5"/>
       <c r="B105" s="2"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
         <v>193</v>
       </c>
@@ -3239,7 +3263,7 @@
       </c>
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
         <v>195</v>
       </c>
@@ -3248,7 +3272,7 @@
       </c>
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="1:3" ht="24">
+    <row r="108" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
         <v>197</v>
       </c>
@@ -3257,8 +3281,21 @@
       </c>
       <c r="C108" s="5"/>
     </row>
+    <row r="110" spans="1:3" ht="216" x14ac:dyDescent="0.15">
+      <c r="A110" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A96:C96"/>
     <mergeCell ref="A1:C1"/>
@@ -3275,11 +3312,6 @@
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3288,12 +3320,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3302,12 +3334,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git-Command.xlsx
+++ b/Git-Command.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="203">
   <si>
     <t>选项</t>
   </si>
@@ -1742,6 +1742,16 @@
 the url needs to be something like ssh://git@github.com/YourDirectory/YourProject.git; if you don't see git@github.com, use
 git remote set-url origin git://github.com/YourDirectory/YourProject.git
 to set it right. Or you could use the github app to check and set the Primary Remote Repository url in the settings panel of your particular repository.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard &lt;commit_id&gt;
+git push origin HEAD --force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 回滚到某一版本(SHA-1)
+2. 把回滚的版本更新到服务器端(强制设置服务器端HEAD为回滚的SHA-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1999,6 +2009,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2011,15 +2033,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2027,9 +2040,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2336,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2351,18 +2361,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -2509,18 +2519,18 @@
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
@@ -2615,11 +2625,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
@@ -2707,18 +2717,18 @@
       <c r="C40" s="5"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
@@ -2805,18 +2815,18 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
@@ -2868,18 +2878,18 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
@@ -2942,11 +2952,11 @@
       <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
@@ -2985,11 +2995,11 @@
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
@@ -3010,11 +3020,11 @@
       <c r="C76" s="5"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" ht="23.25" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
@@ -3035,11 +3045,11 @@
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:4" ht="72" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
@@ -3054,11 +3064,11 @@
       <c r="D81" s="5"/>
     </row>
     <row r="82" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
       <c r="D82" s="5"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -3115,11 +3125,11 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
@@ -3133,18 +3143,18 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="17"/>
     </row>
     <row r="92" spans="1:4" ht="96" x14ac:dyDescent="0.15">
       <c r="A92" s="5"/>
@@ -3174,11 +3184,11 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
@@ -3243,11 +3253,11 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" s="5"/>
@@ -3289,13 +3299,16 @@
         <v>200</v>
       </c>
     </row>
+    <row r="111" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A104:C104"/>
     <mergeCell ref="A96:C96"/>
     <mergeCell ref="A1:C1"/>
@@ -3312,6 +3325,11 @@
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
